--- a/Examen I/4. Clase 30 de marzo - Pronósticos.xlsx
+++ b/Examen I/4. Clase 30 de marzo - Pronósticos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laguilar/Documents/GitHub/ucr/if-7200-i-2023/Examen I/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45E10F8-D321-C44F-B15E-86FFBD8A3907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF869132-0013-9D4D-B0BC-3DFEF718CC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-740" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{A814122A-539C-C748-9E6C-9D83D8105C40}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>Año</t>
   </si>
@@ -1327,10 +1327,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Diagramas dispersión y tiempo'!$B$4:$B$14</c:f>
+              <c:f>'Diagramas dispersión y tiempo'!$B$4:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1366,10 +1366,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Diagramas dispersión y tiempo'!$E$4:$E$14</c:f>
+              <c:f>'Diagramas dispersión y tiempo'!$E$4:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>110</c:v>
                 </c:pt>
@@ -3779,16 +3779,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3811,7 +3811,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6565900" y="9448800"/>
+          <a:off x="7353300" y="9563100"/>
           <a:ext cx="6997700" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3839,10 +3839,10 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{055DCEC2-1DF0-3E41-B200-DBB547FC2B7F}" name="Table13" displayName="Table13" ref="B5:E15" totalsRowShown="0" dataDxfId="8">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{85071726-1F2A-1142-927F-DC8ECEE9EB18}" name="Año" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{D11D63CC-8589-BD4B-B589-CFD43F5E5F14}" name="Computadoras" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{81F799E6-C011-CD48-B072-B502A316D99B}" name="Pronóstico Ventas" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{49398884-1DA7-BF4C-BC68-FF61B6559A82}" name="Valor Absoluto" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{85071726-1F2A-1142-927F-DC8ECEE9EB18}" name="Año" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D11D63CC-8589-BD4B-B589-CFD43F5E5F14}" name="Computadoras" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{81F799E6-C011-CD48-B072-B502A316D99B}" name="Pronóstico Ventas" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{49398884-1DA7-BF4C-BC68-FF61B6559A82}" name="Valor Absoluto" dataDxfId="0" totalsRowDxfId="1">
       <calculatedColumnFormula>ABS(Table13[[#This Row],[Computadoras]]-Table13[[#This Row],[Pronóstico Ventas]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4181,8 +4181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9060BCDD-8398-744B-9263-4C3C3AB0928D}">
   <dimension ref="B3:M40"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="F42" zoomScale="150" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4374,7 +4374,7 @@
   <dimension ref="B5:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4419,7 +4419,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D15" si="0">C6</f>
+        <f>C6</f>
         <v>110</v>
       </c>
       <c r="E7" s="1">
@@ -4435,7 +4435,7 @@
         <v>120</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D7:D15" si="0">C7</f>
         <v>100</v>
       </c>
       <c r="E8" s="1">
@@ -4557,20 +4557,20 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <f>SUM(Table13[Valor Absoluto])</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <f>COUNT(Table13[Valor Absoluto])</f>
         <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <f>SUM(Table13[Valor Absoluto])</f>
-        <v>160</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.2">
@@ -4578,7 +4578,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="3">
-        <f>E17/E16</f>
+        <f>E16/E17</f>
         <v>17.777777777777779</v>
       </c>
     </row>
@@ -4604,7 +4604,7 @@
   <dimension ref="B3:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4864,7 +4864,7 @@
         <v>23</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f>ABS(C15-F15)</f>
         <v>9</v>
       </c>
     </row>
@@ -4877,40 +4877,40 @@
         <v>16</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f>SUM(C12:C15)/4</f>
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <f>SUM(E4:E16)</f>
+        <v>58.333333333333343</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <f>SUM(G8:G15)</f>
+        <v>62.25</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <f>COUNT(E4:E16)</f>
         <v>9</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18">
-        <f>COUNT(F8:F15)</f>
+      <c r="G19">
+        <f>COUNT(G8:G15)</f>
         <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19">
-        <f>SUM(E4:E16)</f>
-        <v>58.333333333333343</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19">
-        <f>SUM(G8:G15)</f>
-        <v>62.25</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.2">
@@ -4918,14 +4918,14 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <f>E19/E18</f>
+        <f>E18/E19</f>
         <v>6.4814814814814827</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G20">
-        <f>G19/G18</f>
+        <f>G18/G19</f>
         <v>7.78125</v>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5258,42 +5258,51 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="2" t="s">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E3:E15)</f>
+        <v>49</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="4">
+        <f>SUM(G6:G14)</f>
+        <v>67.666666666666671</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D17">
+      <c r="E18">
         <f>COUNT(E3:E15)</f>
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18">
         <f>COUNT(G6:G14)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18">
-        <f>SUM(E3:E15)</f>
-        <v>49</v>
-      </c>
-      <c r="F18" s="4">
-        <f>SUM(G6:G14)</f>
-        <v>67.666666666666671</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="s">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="4">
-        <f>D18/D17</f>
+      <c r="E19" s="4">
+        <f>E17/E18</f>
         <v>5.4444444444444446</v>
       </c>
-      <c r="F19" s="4">
-        <f>F18/F17</f>
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="4">
+        <f>G17/G18</f>
         <v>7.518518518518519</v>
       </c>
     </row>
@@ -5309,8 +5318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45AFB9-3F4F-0844-B820-011BCCADE0EB}">
   <dimension ref="B21:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
